--- a/SpeededInstructionsSheet.xlsx
+++ b/SpeededInstructionsSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/InfinityThesisTest5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05BBD4D-2DC9-0542-A146-0147739F3E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3449D-5383-5041-BA40-13623023E799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>You will be shown a total of 160 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 160 statements.  Press E to Continue</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>FastInstructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to completing the study, you will complete 10 practice trials to familiarize yourself with the task. Your performance on these trials will determine your participation in the following study. </t>
+  </si>
+  <si>
+    <t>If the statement is true, press the “E” key on your keyboard with your left pointer finger; if the statement is false, press the “I” key on your keyboard with your right pointer finger. Press E to continue</t>
   </si>
 </sst>
 </file>
@@ -502,11 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -535,6 +541,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid variable name" error="Variable names need to start with a letter or an underscore (_), followed by only letters, numbers and underscores." sqref="A1:XFD1" xr:uid="{7CD88A1A-7D71-4B66-8FF3-B42FC0AD4334}">
@@ -548,6 +564,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -661,12 +683,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -677,6 +693,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -692,21 +723,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>

--- a/SpeededInstructionsSheet.xlsx
+++ b/SpeededInstructionsSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3449D-5383-5041-BA40-13623023E799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDBAEB3-DD57-0A40-B0F0-3758E49ACC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>You will be shown a total of 160 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 160 statements.  Press E to Continue</t>
   </si>
   <si>
-    <t>Each statement will appear on your screen for 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a timer on your screen and a reminder when you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press E to continue</t>
-  </si>
-  <si>
     <t>If the statement is true, you will press the “E” key on your keyboard with your left pointer finger; if the statement is false, you will press the “I” key on your keyboard with your right pointer finger. Press E to continue</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>If the statement is true, press the “E” key on your keyboard with your left pointer finger; if the statement is false, press the “I” key on your keyboard with your right pointer finger. Press E to continue</t>
+  </si>
+  <si>
+    <t>Each statement will appear on your screen for 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press E to continue</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -523,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -533,22 +533,22 @@
     </row>
     <row r="3" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -564,9 +564,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,25 +687,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -724,9 +717,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SpeededInstructionsSheet.xlsx
+++ b/SpeededInstructionsSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDBAEB3-DD57-0A40-B0F0-3758E49ACC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF35C80-9BA1-3B4D-8BAE-B24C16D9E31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,22 +94,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>You will be shown a total of 160 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 160 statements.  Press E to Continue</t>
-  </si>
-  <si>
-    <t>If the statement is true, you will press the “E” key on your keyboard with your left pointer finger; if the statement is false, you will press the “I” key on your keyboard with your right pointer finger. Press E to continue</t>
-  </si>
-  <si>
     <t>FastInstructions</t>
   </si>
   <si>
-    <t xml:space="preserve">Prior to completing the study, you will complete 10 practice trials to familiarize yourself with the task. Your performance on these trials will determine your participation in the following study. </t>
+    <t>You will be shown a total of 80 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 80 statements.  Press F to Continue</t>
   </si>
   <si>
-    <t>If the statement is true, press the “E” key on your keyboard with your left pointer finger; if the statement is false, press the “I” key on your keyboard with your right pointer finger. Press E to continue</t>
+    <t>Each statement will appear on your screen for 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press F to continue</t>
   </si>
   <si>
-    <t>Each statement will appear on your screen for 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press E to continue</t>
+    <t>If the statement is true, you will press the “F” key on your keyboard with your left pointer finger; if the statement is false, you will press the “J” key on your keyboard with your right pointer finger. Press F to continue</t>
+  </si>
+  <si>
+    <t>Prior to completing the study, you will complete 10 practice trials to familiarize yourself with the task. Your performance on these trials will determine your participation in the following study. Press 'F' to continue.</t>
+  </si>
+  <si>
+    <t>If the statement is true, press the “F” key on your keyboard with your left pointer finger; if the statement is false, press the “J” key on your keyboard with your right pointer finger. Press F to continue</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -523,32 +523,32 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -564,12 +564,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,15 +684,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -717,16 +724,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SpeededInstructionsSheet.xlsx
+++ b/SpeededInstructionsSheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF35C80-9BA1-3B4D-8BAE-B24C16D9E31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157FF551-16BA-4F41-BA11-D09594710AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,19 +97,19 @@
     <t>FastInstructions</t>
   </si>
   <si>
-    <t>You will be shown a total of 80 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 80 statements.  Press F to Continue</t>
+    <t>You will be shown a total of 80 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 80 statements.  Press SPACE to Continue</t>
   </si>
   <si>
-    <t>Each statement will appear on your screen for 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press F to continue</t>
+    <t>Each statement will appear on your screen for up to 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press SPACE to continue</t>
   </si>
   <si>
-    <t>If the statement is true, you will press the “F” key on your keyboard with your left pointer finger; if the statement is false, you will press the “J” key on your keyboard with your right pointer finger. Press F to continue</t>
+    <t>If the statement is true, you will press the “F” key on your keyboard with your left pointer finger; if the statement is false, you will press the “J” key on your keyboard with your right pointer finger. Press SPACE to continue</t>
   </si>
   <si>
-    <t>Prior to completing the study, you will complete 10 practice trials to familiarize yourself with the task. Your performance on these trials will determine your participation in the following study. Press 'F' to continue.</t>
+    <t>Prior to completing the study, you will complete 10 practice trials to familiarize yourself with the task. Your performance on these trials will determine your participation in the following study. Press SPACE to continue.</t>
   </si>
   <si>
-    <t>If the statement is true, press the “F” key on your keyboard with your left pointer finger; if the statement is false, press the “J” key on your keyboard with your right pointer finger. Press F to continue</t>
+    <t>If the statement is true, press the “F” key on your keyboard with your left pointer finger; if the statement is false, press the “J” key on your keyboard with your right pointer finger. Press SPACE to continue</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -564,12 +564,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -683,7 +677,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -692,22 +686,13 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -723,10 +708,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SpeededInstructionsSheet.xlsx
+++ b/SpeededInstructionsSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157FF551-16BA-4F41-BA11-D09594710AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED28808F-6CA9-6449-826E-4A891CB0DDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>You will be shown a total of 80 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 80 statements.  Press SPACE to Continue</t>
   </si>
   <si>
-    <t>Each statement will appear on your screen for up to 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press SPACE to continue</t>
-  </si>
-  <si>
     <t>If the statement is true, you will press the “F” key on your keyboard with your left pointer finger; if the statement is false, you will press the “J” key on your keyboard with your right pointer finger. Press SPACE to continue</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>If the statement is true, press the “F” key on your keyboard with your left pointer finger; if the statement is false, press the “J” key on your keyboard with your right pointer finger. Press SPACE to continue</t>
+  </si>
+  <si>
+    <t>Each statement will appear on your screen for up to 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2 seconds remaining. Please make sure the sound on your computer is turned on. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press SPACE to continue</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -533,22 +533,22 @@
     </row>
     <row r="3" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -564,6 +564,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -677,22 +692,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -706,27 +729,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SpeededInstructionsSheet.xlsx
+++ b/SpeededInstructionsSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED28808F-6CA9-6449-826E-4A891CB0DDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2C214-C18F-BE4E-A4A1-F9DB8DE5FEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <t>If the statement is true, press the “F” key on your keyboard with your left pointer finger; if the statement is false, press the “J” key on your keyboard with your right pointer finger. Press SPACE to continue</t>
   </si>
   <si>
-    <t>Each statement will appear on your screen for up to 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2 seconds remaining. Please make sure the sound on your computer is turned on. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press SPACE to continue</t>
+    <t>Each statement will appear on your screen for up to 4 seconds and you will have those 4 seconds to decide if it is true or false before the next statement appears. There will be a beep to inform you that you have 2.5 seconds remaining. Please make sure the sound on your computer is turned on. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press SPACE to continue</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
